--- a/output/overlapped_genes_3_comb.xlsx
+++ b/output/overlapped_genes_3_comb.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,192 +439,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17Q21_Q25</t>
+          <t>GDSC_Cell cycle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DLX3/PRR11/BIRC5/TK1/SLC25A10</t>
+          <t>CDK1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17Q21_Q25</t>
+          <t>GDSC_Cell cycle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>scRNA Cluster 1 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.002</v>
+        <v>0.044</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TMC6/TSPAN10/KCTD2/LINC00482/GNA13/USP36/HOXB13</t>
+          <t>PLK1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>GDSC_Cell cycle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BLM/RB1</t>
+          <t>PLK2/CDK7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>HALLMARK_HEME_METABOLISM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>scRNA Cluster 1 (Protein+)</t>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.004</v>
+        <v>0.021</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TSC1/MLH1/CYLD</t>
+          <t>EZH1/SIDT2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16Q24</t>
+          <t>HALLMARK_HEME_METABOLISM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.001</v>
+        <v>0.026</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ACSF3/GINS2/CDT1</t>
+          <t>NEK7/DAAM1/EPB41</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17P11</t>
+          <t>HALLMARK_HEME_METABOLISM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>scRNA Cluster 1 (Protein+)</t>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ALDH3A1</t>
+          <t>PC/ICAM4/RIOK3/ASNS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20P13</t>
+          <t>ECM-receptor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.024</v>
+        <v>0.029</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C20orf27</t>
+          <t>HMMR/COL1A1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7Q21_Q22</t>
+          <t>ECM-receptor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>scRNA Cluster 1 (Protein+)</t>
+          <t>scRNA Cluster 3 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.001</v>
+        <v>0.033</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZSCAN25/LMTK2/RBM48/ZKSCAN5</t>
+          <t>COL6A1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8Q23_Q24</t>
+          <t>GDSC_GeneTargets</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RECQL4/ATAD2/BOP1</t>
+          <t>PLK1/CECR2/BIRC5/AURKA/KIF11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chromatin Structure and Modification</t>
+          <t>GDSC_GeneTargets</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C11">
@@ -632,159 +632,159 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>H2AFX/CHAF1A</t>
+          <t>PIM1/IDH1/KDM6B/PLK2/SMARCA4/DYRK1B/CDK7/BAZ2B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DNA polymerases</t>
+          <t>HALLMARK_E2F_TARGETS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLE/POLD2</t>
+          <t>SHMT1/TCF19/HELLS/CDK1/TOP2A/MXD3/ASF1B</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Editing and processing nucleases</t>
+          <t>HALLMARK_E2F_TARGETS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EXO1</t>
+          <t>CCNB2/PTTG1/PLK1/HMMR/KPNA2/CENPE/CDC20/EXOSC8/DLGAP5/KIF4A/DDX39A/CDKN3/BIRC5/SPAG5/MAD2L1/CDCA3/CSE1L/KIF2C/DEPDC1/AURKA/TACC3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fanconi anemia</t>
+          <t>HALLMARK_ESTROGEN_RESPONSE_EARLY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.002</v>
+        <v>0.021</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FANCI/UBE2T</t>
+          <t>TMEM164/MED13L</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GAZIN_EPIGENETIC_SILENCING_BY_KRAS</t>
+          <t>HALLMARK_ESTROGEN_RESPONSE_EARLY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 3 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DNMT1/E2F1</t>
+          <t>FLNB/PODXL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GDSC_Apoptosis regulation</t>
+          <t>HALLMARK_G2M_CHECKPOINT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.028</v>
+        <v>0.021</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BIRC5</t>
+          <t>CDK1/TOP2A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GDSC_Cell cycle</t>
+          <t>HALLMARK_G2M_CHECKPOINT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PLK1/CDK1</t>
+          <t>CCNB2/PTTG1/PLK1/HMMR/BUB1/KPNA2/CENPE/CDC20/NEK2/NDC80/KIF4A/DDX39A/CCNA2/TPX2/CDKN3/BIRC5/MAD2L1/HNRNPU/KIF2C/PBK/AURKA/TACC3/KIF11/CENPF/PRC1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GDSC_DNA replication</t>
+          <t>HALLMARK_GLYCOLYSIS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TYMS</t>
+          <t>HMMR/FKBP4/DEPDC1/AURKA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GDSC_GeneTargets</t>
+          <t>HALLMARK_GLYCOLYSIS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C19">
@@ -792,59 +792,59 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TTK/BIRC5/AURKB/AURKA/TYMS/DHFR/PLK1/CDK1</t>
+          <t>PC/IRS2/GFPT1/IDH1/DSC2/CITED2/PAXIP1/DDIT4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GDSC_Mitosis</t>
+          <t>HALLMARK_MITOTIC_SPINDLE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TTK/AURKB/AURKA</t>
+          <t>CDK1/TOP2A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GDSC_Unclassified</t>
+          <t>HALLMARK_MITOTIC_SPINDLE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TTK</t>
+          <t>CCNB2/HOOK3/PLK1/CDC42EP4/BUB1/CENPE/DLGAP5/NEK2/NDC80/KIF4A/EPB41/TPX2/BIRC5/KIF2C/CKAP5/AURKA/KIF11/CENPF/PRC1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Genes defective in diseases associated with sensitivity to DNA damaging agents</t>
+          <t>HALLMARK_MTORC1_SIGNALING</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C22">
@@ -852,127 +852,1127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BLM/RECQL4</t>
+          <t>ELOVL6/PLK1/BUB1/ADIPOR2/DDX39A/HMGCR/PNO1/AURKA/NUFIP1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GOBP_NEGATIVE_REGULATION_OF_GENE_EXPRESSION_EPIGENETIC</t>
+          <t>HALLMARK_MTORC1_SIGNALING</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PHF19/DNMT1/ATAD2</t>
+          <t>IFRD1/INSIG1/PIK3R3/IDH1/PPP1R15A/HMGCS1/STARD4/CDKN1A/TRIB3/ASNS/DDIT4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GOBP_POSITIVE_REGULATION_OF_GENE_EXPRESSION_EPIGENETIC</t>
+          <t>HALLMARK_PI3K_AKT_MTOR_SIGNALING</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DEK/ATAD2</t>
+          <t>RALB/PRKAA2/PRKAG1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GOBP_REGULATION_OF_GENE_EXPRESSION_EPIGENETIC</t>
+          <t>HALLMARK_PI3K_AKT_MTOR_SIGNALING</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PHF19/DNMT1/DEK/ATAD2</t>
+          <t>PIK3R3/PLCG1/CDKN1A/TRIB3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Modulation of nucleotide pools</t>
+          <t>HALLMARK_SPERMATOGENESIS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NUDT1</t>
+          <t>CCNB2/BUB1/NEK2/CDKN3/KIF2C/AURKA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>REACTOME_EPIGENETIC_REGULATION_OF_GENE_EXPRESSION</t>
+          <t>HALLMARK_SPERMATOGENESIS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.014</v>
+        <v>0.044</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PHF19/DNMT1/DEK</t>
+          <t>PHF7/IFT88/MAST2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>PI3K/AKT/MTOR Signaling</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>0.005</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>RALB/PRKAA2/PRKAG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PI3K/AKT/MTOR Signaling</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>0.003</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PIK3R3/PLCG1/CDKN1A/TRIB3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10Q22</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>EIF5AL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>16P13</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 3 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>0.046</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PKMYT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1Q32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>0.014</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SRGAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20Q12_Q13</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>0.011</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NFATC2/FAM210B</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>21Q22</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 3 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>0.006</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>COL6A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7P22</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 3 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>0.014</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LFNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>8Q23_Q24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>0.012</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PTP4A3/MTSS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ERBB2 signaling</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>0.002</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PIK3R3/HBEGF/PLCG1/CDKN1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FAK signaling</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>0.017</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ETS1/PIK3CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GDSC_Apoptosis regulation</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>0.025</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BIRC5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GDSC_Chromatin other</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>0.028</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CECR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GDSC_Metabolism</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>0.034</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>IDH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GDSC_Mitosis</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AURKA/KIF11</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GDSC_Other, kinases</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>0.004</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PIM1/DYRK1B/CDK7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GOBP_NEGATIVE_REGULATION_OF_GENE_EXPRESSION_EPIGENETIC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>0.049</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>KMT2D/HAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GOBP_REGULATION_OF_GENE_EXPRESSION_EPIGENETIC</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>0.023</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>KMT2D/HNRNPU/HAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HALLMARK_ADIPOGENESIS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>0.007</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>IDH1/SOWAHC/RIOK3/HSPB8/PTCD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HALLMARK_ANDROGEN_RESPONSE</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>0.02</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>INSIG1/HMGCS1/ARID5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HALLMARK_APICAL_JUNCTION</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ADAM15/ICAM4/INSIG1/PIK3R3/FLNC/PLCG1/LAMC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HALLMARK_APICAL_SURFACE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ADIPOR2/RHCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HALLMARK_APOPTOSIS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>0.003</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SMAD7/RHOB/GADD45B/ATF3/CDKN1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HALLMARK_CHOLESTEROL_HOMEOSTASIS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>0.001</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>HMGCS1/STARD4/ATF3/TRIB3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HALLMARK_COAGULATION</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MMP14/MAFF/MMP10/PREP</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HALLMARK_COMPLEMENT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PDP1/MMP14/PCLO/PIM1/MAFF/CPM/CEBPB/PREP</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HALLMARK_EPITHELIAL_MESENCHYMAL_TRANSITION</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MMP14/RHOB/INHBA/GADD45B/RGS4/SNAI2/MSX1/LAMC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HALLMARK_ESTROGEN_RESPONSE_LATE</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>0.026</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NMU/CDC20/FKBP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HALLMARK_HYPOXIA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>KLHL24/PIM1/NEDD4L/VHL/IRS2/MAFF/PPP1R15A/CITED2/ATF3/CDKN1C/CDKN1A/DDIT4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HALLMARK_IL2_STAT5_SIGNALING</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PIM1/MAP3K8/MAFF/RHOB/GADD45B/NFKBIZ/CDKN1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HALLMARK_INFLAMMATORY_RESPONSE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MMP14/NFKBIA/ICAM4/INHBA/HBEGF/CDKN1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HALLMARK_INTERFERON_GAMMA_RESPONSE</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>0.027</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PIM1/NFKBIA/ARID5B/CDKN1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HALLMARK_KRAS_SIGNALING_UP</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>0.007</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GADD45G/PPP1R15A/MMP10/INHBA/HBEGF</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HALLMARK_MYC_TARGETS_V1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>KPNA2/CDC20/ILF2/EIF3B/CCNA2/MAD2L1/HNRNPU/APEX1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HALLMARK_MYC_TARGETS_V2</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PLK1/NIP7/MRTO4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HALLMARK_MYOGENESIS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PC/IFRD1/KLF5/MEF2C/HSPB8/GADD45B/HBEGF/CDKN1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HALLMARK_NOTCH_SIGNALING</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 3 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>0.013</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LFNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HALLMARK_P53_PATHWAY</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>IER5/PLK2/HEXIM1/PPP1R15A/ZFP36L1/ATF3/HBEGF/CDKN1A/TRIB3/DDIT4/IP6K2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HALLMARK_PEROXISOME</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>0.023</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>EHHADH/IDH1/CDK7</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HALLMARK_TGF_BETA_SIGNALING</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>0.004</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SMAD7/PPP1R15A/CDKN1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HALLMARK_TNFA_SIGNALING_VIA_NFKB</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NFKBIA/MAP3K8/IRS2/MAFF/IER5/KDM6B/PLK2/RHOB/PPP1R15A/NR4A1/INHBA/CEBPD/GADD45B/FOSB/ATF3/ZC3H12A/REL/ETS2/HBEGF/CDKN1A/DUSP2/HES1/CEBPB/BCL2A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HALLMARK_UNFOLDED_PROTEIN_RESPONSE</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>0.004</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ATF3/ASNS/CEBPB/DDIT4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HALLMARK_UV_RESPONSE_DN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>INSIG1/PIK3R3/SMAD7/CITED2/RGS4/SNAI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HALLMARK_UV_RESPONSE_UP</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MMP14/NFKBIA/FGF18/NXF1/RHOB/NR4A1/FOSB/ATF3/CDKN1C/ASNS/MSX1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HALLMARK_XENOBIOTIC_METABOLISM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>0.03</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PC/IDH1/CSAD/ETS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MAPK signaling</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>0.001</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MAP3K8/FGF18/GADD45G/MEF2C/NR4A1/GADD45B/FLNC/DUSP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Modulation of nucleotide pools</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>0.022</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>RRM2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NER-related</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>0.023</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>XAB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Other BER and strand break joining factors</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>0.022</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>APEX1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>TGF-beta signaling</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>scRNA Cluster 1 (Protein+)</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>0.015</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>FOXH1/LIMK2/CITED1/BTRC</t>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NEDD4L/SMAD7/MEF2C/PPP1R15A/INHBA/FOSB/ATF3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TSG</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 2 (Sorted Bulk)</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>0.006</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VHL/IDH1/SMARCA4</t>
         </is>
       </c>
     </row>
@@ -983,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1494,7 +2494,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Modulation of nucleotide pools</t>
+          <t>HALLMARK_ANDROGEN_RESPONSE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1503,49 +2503,349 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.024</v>
+        <v>0.047</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NUDT1</t>
+          <t>ABCC4/CENPN</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>REACTOME_EPIGENETIC_REGULATION_OF_GENE_EXPRESSION</t>
+          <t>HALLMARK_APOPTOSIS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>scRNA Cluster 0 (Protein+)</t>
+          <t>scRNA Cluster 1 (Protein+)</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PHF19/DNMT1/DEK</t>
+          <t>GCH1/BTG2/SQSTM1/CYLD/HMOX1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>HALLMARK_DNA_REPAIR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>0.016</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PDE4B/ZWINT/TYMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HALLMARK_E2F_TARGETS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>E2F8/RNASEH2A/PRIM2/CDC25A/NCAPD2/PLK4/BUB1B/POLE/BIRC5/TK1/CKS1B/MKI67/CDCA3/UBE2S/STMN1/CDC20/MYBL2/AURKB/DNMT1/RRM2/UBE2T/HMGB2/AURKA/SPC25/HMMR/PTTG1/DEPDC1/TIMELESS/KIF2C/CDKN3/PSMC3IP/ASF1B/DEK/CENPM/TACC3/CDCA8/CENPE/LYAR/DLGAP5/SMC4/ATAD2/PLK1/SPC24/POLD2/HELLS/CCNB2/LMNB1/TOP2A/CDK1/TUBG1/MAD2L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HALLMARK_ESTROGEN_RESPONSE_LATE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>0.001</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>RNASEH2A/PLK4/CDC20/GINS2/TOP2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HALLMARK_G2M_CHECKPOINT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NDC80/PRIM2/CASP8AP2/CDC25A/PLK4/EXO1/TTK/POLE/BIRC5/UBE2C/CKS1B/MKI67/TPX2/UBE2S/STMN1/CENPA/NUSAP1/CDC20/MYBL2/AURKB/CENPF/AURKA/HMMR/PTTG1/GINS2/DTYMK/KIF2C/CCNA2/CDKN3/PBK/TACC3/CENPE/SMC4/PLK1/TROAP/CHAF1A/E2F1/PRC1/CCNB2/LMNB1/TOP2A/CDK1/MAD2L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HALLMARK_GLYCOLYSIS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>STMN1/CENPA/AURKA/HMMR/DEPDC1/SLC25A10/CDK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HALLMARK_HEME_METABOLISM</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ERMAP/AQP3/BTG2/BACH1/LMO2/BTRC/CPOX/SLC2A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HALLMARK_MITOTIC_SPINDLE</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NDC80/SASS6/TTK/BIRC5/TPX2/NUSAP1/CENPF/AURKA/KIF2C/ANLN/CENPE/DLGAP5/SMC4/PLK1/PRC1/CCNB2/LMNB1/TOP2A/CDK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HALLMARK_MTORC1_SIGNALING</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CDC25A/TOMM40/RRM2/AURKA/DHFR/PLK1/TUBG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HALLMARK_MYC_TARGETS_V1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CDC20/CCNA2/TYMS/DEK/RRM1/POLD2/TRIM28/MAD2L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HALLMARK_MYC_TARGETS_V2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>0.017</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PLK4/PLK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HALLMARK_SPERMATOGENESIS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CNIH2/NCAPH/TTK/AURKA/KIF2C/CDKN3/CCNB2/CDK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HALLMARK_TNFA_SIGNALING_VIA_NFKB</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>0.004</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MXD1/GCH1/BTG2/NFKB2/SQSTM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HALLMARK_UV_RESPONSE_UP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 1 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>0.001</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GCH1/AQP3/BTG2/SQSTM1/HMOX1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Modulation of nucleotide pools</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>0.024</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NUDT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>REACTOME_EPIGENETIC_REGULATION_OF_GENE_EXPRESSION</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>scRNA Cluster 0 (Protein+)</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>0.014</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PHF19/DNMT1/DEK</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>TGF-beta signaling</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>scRNA Cluster 1 (Protein+)</t>
         </is>
       </c>
-      <c r="C28">
+      <c r="C43">
         <v>0.015</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>FOXH1/LIMK2/CITED1/BTRC</t>
         </is>
